--- a/Outbreaks_graph maker.xlsx
+++ b/Outbreaks_graph maker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf9431caf3b2abcc/UAntwerpen/3de bachelor/Bachelor eindwerk/stride-solutions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\OneDrive\UAntwerpen\3de bachelor\Bachelor eindwerk\stride-solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FBD19F-F9AF-4A26-825C-A45185244739}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{65FBD19F-F9AF-4A26-825C-A45185244739}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{939D1D1A-D121-40B8-A354-96083ABCB78B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{11D8C0DE-C9EA-4019-8BFD-0646CBD4A364}"/>
+    <workbookView xWindow="5820" yWindow="2940" windowWidth="22500" windowHeight="14630" xr2:uid="{11D8C0DE-C9EA-4019-8BFD-0646CBD4A364}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Daycare &amp; Preschool</t>
-  </si>
-  <si>
-    <t>Without</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Extinction</t>
   </si>
   <si>
     <t>Outbreak</t>
+  </si>
+  <si>
+    <t>Flanders</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Flanders as part of Belgium</t>
   </si>
 </sst>
 </file>
@@ -118,10 +121,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7515862319011927E-2"/>
-          <c:y val="1.7211192222036348E-2"/>
-          <c:w val="0.87841006360691398"/>
-          <c:h val="0.82115657830000643"/>
+          <c:x val="8.5247239730986163E-2"/>
+          <c:y val="7.2938738694814861E-2"/>
+          <c:w val="0.84067872673454058"/>
+          <c:h val="0.76542892664732698"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -137,7 +140,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Daycare &amp; Preschool</c:v>
+                  <c:v>Flanders</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -173,10 +176,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -196,7 +199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Without</c:v>
+                  <c:v>Belgium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -232,10 +235,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -243,6 +246,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-18D9-4A88-A618-8660F53EF197}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flanders as part of Belgium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Outbreak</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Extinction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD89-4988-B7A4-BAEA9CD1C995}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -476,12 +538,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1052,15 +1109,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>235087</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>90489</xdr:rowOff>
+      <xdr:rowOff>68607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1385,49 +1442,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C0EF4A-DA1D-46FF-90D7-1B147AD64897}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.46484375" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>